--- a/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/metrics_table.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/metrics_table.xlsx
@@ -522,10 +522,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.8234491033640211</v>
+        <v>0.6873737373737374</v>
       </c>
       <c r="C4">
-        <v>0.03932485644646844</v>
+        <v>0.2057756992558754</v>
       </c>
       <c r="D4">
         <v>0.4705882352941176</v>
@@ -543,10 +543,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="I4">
-        <v>0.5270673527252474</v>
+        <v>0.494687761354428</v>
       </c>
       <c r="J4">
-        <v>0.7549019607843137</v>
+        <v>0.7581699346405228</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -561,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>0.7658708133971291</v>
+        <v>0.86</v>
       </c>
       <c r="P4">
-        <v>0.07284018495081455</v>
+        <v>0.1123486636423514</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -572,16 +572,16 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7851375018092343</v>
+        <v>0.709059829059829</v>
       </c>
       <c r="C5">
-        <v>0.02067441051373594</v>
+        <v>0.1882839056660988</v>
       </c>
       <c r="D5">
-        <v>0.5263157894736842</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E5">
-        <v>0.5434782608695652</v>
+        <v>0.625</v>
       </c>
       <c r="F5">
         <v>0.7906976744186046</v>
@@ -590,31 +590,31 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5">
-        <v>0.445765719011333</v>
+        <v>0.5354712220022297</v>
       </c>
       <c r="J5">
-        <v>0.7385620915032679</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="K5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>0.5622870813397128</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="P5">
-        <v>0.04559416883719228</v>
+        <v>0.08069145624606805</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -622,37 +622,37 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6936977413870867</v>
+        <v>0.6797385620915033</v>
       </c>
       <c r="C6">
-        <v>0.03312544100067901</v>
+        <v>0.1330510917647004</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.6363636363636364</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="F6">
-        <v>0.6744186046511628</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="G6">
-        <v>0.3684210526315789</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H6">
         <v>0.7777777777777778</v>
       </c>
       <c r="I6">
-        <v>0.5229256854256854</v>
+        <v>0.4514787191878878</v>
       </c>
       <c r="J6">
-        <v>0.6895424836601307</v>
+        <v>0.7287581699346405</v>
       </c>
       <c r="K6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -661,10 +661,10 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>0.6363588516746411</v>
+        <v>0.805</v>
       </c>
       <c r="P6">
-        <v>0.1108183969750727</v>
+        <v>0.09994442900376631</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -672,49 +672,49 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7617336152219872</v>
+        <v>0.5842857142857143</v>
       </c>
       <c r="C7">
-        <v>0.02889221193379539</v>
+        <v>0.241694696943504</v>
       </c>
       <c r="D7">
-        <v>0.5263157894736842</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="E7">
-        <v>0.5434782608695652</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="F7">
-        <v>0.7906976744186046</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H7">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I7">
-        <v>0.4580897400917623</v>
+        <v>0.4423757886290186</v>
       </c>
       <c r="J7">
-        <v>0.7450980392156863</v>
+        <v>0.7565359477124183</v>
       </c>
       <c r="K7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>0.5885980861244019</v>
+        <v>0.7950000000000002</v>
       </c>
       <c r="P7">
-        <v>0.1068423469614598</v>
+        <v>0.1242309676905614</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -722,37 +722,37 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="C8">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="D8">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E8">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="F8">
+        <v>0.8372093023255814</v>
+      </c>
+      <c r="G8">
         <v>0.6</v>
-      </c>
-      <c r="E8">
-        <v>0.6382978723404255</v>
-      </c>
-      <c r="F8">
-        <v>0.813953488372093</v>
-      </c>
-      <c r="G8">
-        <v>0.5454545454545454</v>
       </c>
       <c r="H8">
         <v>0.6666666666666666</v>
       </c>
       <c r="I8">
-        <v>0.4340053838299452</v>
+        <v>0.408454382132543</v>
       </c>
       <c r="J8">
-        <v>0.7516339869281045</v>
+        <v>0.7156862745098039</v>
       </c>
       <c r="K8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -761,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="P8">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
   </sheetData>
